--- a/data/graph/График 2 бригада 3.xlsx
+++ b/data/graph/График 2 бригада 3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,19 +446,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01.11.2023</t>
+          <t>01.12.2023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01.11.2023</t>
+          <t>01.12.2023</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>02.11.2023</t>
+          <t>02.12.2023</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -468,7 +468,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>02.11.2023</t>
+          <t>02.12.2023</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -480,7 +480,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03.11.2023</t>
+          <t>03.12.2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -490,7 +490,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>03.11.2023</t>
+          <t>03.12.2023</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -502,31 +502,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04.11.2023</t>
+          <t>04.12.2023</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>04.11.2023</t>
+          <t>04.12.2023</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>05.11.2023</t>
+          <t>05.12.2023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>05.11.2023</t>
+          <t>05.12.2023</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>06.11.2023</t>
+          <t>06.12.2023</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>06.11.2023</t>
+          <t>06.12.2023</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -548,7 +548,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>07.11.2023</t>
+          <t>07.12.2023</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -558,7 +558,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>07.11.2023</t>
+          <t>07.12.2023</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -570,31 +570,31 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>08.11.2023</t>
+          <t>08.12.2023</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>08.11.2023</t>
+          <t>08.12.2023</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>09.11.2023</t>
+          <t>09.12.2023</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>09.11.2023</t>
+          <t>09.12.2023</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10.11.2023</t>
+          <t>10.12.2023</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10.11.2023</t>
+          <t>10.12.2023</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11.11.2023</t>
+          <t>11.12.2023</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11.11.2023</t>
+          <t>11.12.2023</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -638,31 +638,31 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12.11.2023</t>
+          <t>12.12.2023</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12.11.2023</t>
+          <t>12.12.2023</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13.11.2023</t>
+          <t>13.12.2023</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13.11.2023</t>
+          <t>13.12.2023</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>14.11.2023</t>
+          <t>14.12.2023</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14.11.2023</t>
+          <t>14.12.2023</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>15.11.2023</t>
+          <t>15.12.2023</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -694,7 +694,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15.11.2023</t>
+          <t>15.12.2023</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -706,31 +706,31 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>16.11.2023</t>
+          <t>16.12.2023</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16.11.2023</t>
+          <t>16.12.2023</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>17.11.2023</t>
+          <t>17.12.2023</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17.11.2023</t>
+          <t>17.12.2023</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>18.11.2023</t>
+          <t>18.12.2023</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>18.11.2023</t>
+          <t>18.12.2023</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>19.11.2023</t>
+          <t>19.12.2023</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>19.11.2023</t>
+          <t>19.12.2023</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -774,31 +774,31 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20.11.2023</t>
+          <t>20.12.2023</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>20.11.2023</t>
+          <t>20.12.2023</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>21.11.2023</t>
+          <t>21.12.2023</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>21.11.2023</t>
+          <t>21.12.2023</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>22.12.2023</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>22.11.2023</t>
+          <t>22.12.2023</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>23.11.2023</t>
+          <t>23.12.2023</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -830,7 +830,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>23.11.2023</t>
+          <t>23.12.2023</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -842,31 +842,31 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>24.11.2023</t>
+          <t>24.12.2023</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>24.11.2023</t>
+          <t>24.12.2023</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>25.11.2023</t>
+          <t>25.12.2023</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>25.11.2023</t>
+          <t>25.12.2023</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>26.11.2023</t>
+          <t>26.12.2023</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>26.11.2023</t>
+          <t>26.12.2023</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>27.11.2023</t>
+          <t>27.12.2023</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>27.11.2023</t>
+          <t>27.12.2023</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -910,31 +910,31 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>28.11.2023</t>
+          <t>28.12.2023</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>28.11.2023</t>
+          <t>28.12.2023</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>29.11.2023</t>
+          <t>29.12.2023</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>29.11.2023</t>
+          <t>29.12.2023</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>30.11.2023</t>
+          <t>30.12.2023</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -944,10 +944,32 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>30.11.2023</t>
+          <t>30.12.2023</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31.12.2023</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>31.12.2023</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>20:00:00</t>
         </is>

--- a/data/graph/График 2 бригада 3.xlsx
+++ b/data/graph/График 2 бригада 3.xlsx
@@ -446,41 +446,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01.12.2023</t>
+          <t>01.01.2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01.12.2023</t>
+          <t>01.01.2024</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>02.12.2023</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>08:00:00</t>
+          <t>02.01.2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>02.12.2023</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
+          <t>02.01.2024</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03.12.2023</t>
+          <t>03.01.2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -490,7 +480,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>03.12.2023</t>
+          <t>03.01.2024</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -502,53 +492,53 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04.12.2023</t>
+          <t>04.01.2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>04.12.2023</t>
+          <t>04.01.2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>05.12.2023</t>
+          <t>05.01.2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>05.12.2023</t>
+          <t>05.01.2024</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>06.12.2023</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>08:00:00</t>
+          <t>06.01.2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>06.12.2023</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
+          <t>06.01.2024</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>07.12.2023</t>
+          <t>07.01.2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -558,7 +548,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>07.12.2023</t>
+          <t>07.01.2024</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -570,53 +560,53 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>08.12.2023</t>
+          <t>08.01.2024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>08.12.2023</t>
+          <t>08.01.2024</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>09.12.2023</t>
+          <t>09.01.2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>09.12.2023</t>
+          <t>09.01.2024</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10.12.2023</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>08:00:00</t>
+          <t>10.01.2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10.12.2023</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
+          <t>10.01.2024</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11.12.2023</t>
+          <t>11.01.2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -626,7 +616,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11.12.2023</t>
+          <t>11.01.2024</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -638,53 +628,53 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12.12.2023</t>
+          <t>12.01.2024</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12.12.2023</t>
+          <t>12.01.2024</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13.12.2023</t>
+          <t>13.01.2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13.12.2023</t>
+          <t>13.01.2024</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>14.12.2023</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>08:00:00</t>
+          <t>14.01.2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14.12.2023</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
+          <t>14.01.2024</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>15.12.2023</t>
+          <t>15.01.2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -694,7 +684,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15.12.2023</t>
+          <t>15.01.2024</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -706,53 +696,53 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>16.12.2023</t>
+          <t>16.01.2024</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16.12.2023</t>
+          <t>16.01.2024</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>17.12.2023</t>
+          <t>17.01.2024</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17.12.2023</t>
+          <t>17.01.2024</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>18.12.2023</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>08:00:00</t>
+          <t>18.01.2024</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>18.12.2023</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
+          <t>18.01.2024</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>19.12.2023</t>
+          <t>19.01.2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -762,7 +752,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>19.12.2023</t>
+          <t>19.01.2024</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -774,53 +764,53 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20.12.2023</t>
+          <t>20.01.2024</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>20.12.2023</t>
+          <t>20.01.2024</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>21.12.2023</t>
+          <t>21.01.2024</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>21.12.2023</t>
+          <t>21.01.2024</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>22.12.2023</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>08:00:00</t>
+          <t>22.01.2024</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>22.12.2023</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
+          <t>22.01.2024</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>23.12.2023</t>
+          <t>23.01.2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -830,7 +820,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>23.12.2023</t>
+          <t>23.01.2024</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -842,53 +832,53 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>24.12.2023</t>
+          <t>24.01.2024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>24.12.2023</t>
+          <t>24.01.2024</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>25.12.2023</t>
+          <t>25.01.2024</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>25.12.2023</t>
+          <t>25.01.2024</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>26.12.2023</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>08:00:00</t>
+          <t>26.01.2024</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>26.12.2023</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
+          <t>26.01.2024</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>27.12.2023</t>
+          <t>27.01.2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -898,7 +888,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>27.12.2023</t>
+          <t>27.01.2024</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -910,53 +900,53 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>28.12.2023</t>
+          <t>28.01.2024</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>28.12.2023</t>
+          <t>28.01.2024</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>29.12.2023</t>
+          <t>29.01.2024</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>29.12.2023</t>
+          <t>29.01.2024</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>30.12.2023</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>08:00:00</t>
+          <t>30.01.2024</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>30.12.2023</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
+          <t>30.01.2024</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>31.12.2023</t>
+          <t>31.01.2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -966,7 +956,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>31.12.2023</t>
+          <t>31.01.2024</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">

--- a/data/graph/График 2 бригада 3.xlsx
+++ b/data/graph/График 2 бригада 3.xlsx
@@ -446,31 +446,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01.01.2024</t>
+          <t>01.12.2023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01.01.2024</t>
+          <t>01.12.2023</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>02.01.2024</t>
+          <t>02.12.2023</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>02.01.2024</t>
+          <t>02.12.2023</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03.01.2024</t>
+          <t>03.12.2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -480,7 +490,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>03.01.2024</t>
+          <t>03.12.2023</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -492,53 +502,53 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04.01.2024</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>08:00:00</t>
+          <t>04.12.2023</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>04.01.2024</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
+          <t>04.12.2023</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>05.01.2024</t>
+          <t>05.12.2023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>05.01.2024</t>
+          <t>05.12.2023</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>06.01.2024</t>
+          <t>06.12.2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>06.01.2024</t>
+          <t>06.12.2023</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>07.01.2024</t>
+          <t>07.12.2023</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -548,7 +558,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>07.01.2024</t>
+          <t>07.12.2023</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -560,53 +570,53 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>08.01.2024</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>08:00:00</t>
+          <t>08.12.2023</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>08.01.2024</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
+          <t>08.12.2023</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>09.01.2024</t>
+          <t>09.12.2023</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>09.01.2024</t>
+          <t>09.12.2023</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10.01.2024</t>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10.01.2024</t>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11.01.2024</t>
+          <t>11.12.2023</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -616,7 +626,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11.01.2024</t>
+          <t>11.12.2023</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -628,53 +638,53 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12.01.2024</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>08:00:00</t>
+          <t>12.12.2023</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12.01.2024</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
+          <t>12.12.2023</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13.01.2024</t>
+          <t>13.12.2023</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13.01.2024</t>
+          <t>13.12.2023</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>14.01.2024</t>
+          <t>14.12.2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14.01.2024</t>
+          <t>14.12.2023</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>15.01.2024</t>
+          <t>15.12.2023</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -684,7 +694,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15.01.2024</t>
+          <t>15.12.2023</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -696,53 +706,53 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>16.01.2024</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>08:00:00</t>
+          <t>16.12.2023</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16.01.2024</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
+          <t>16.12.2023</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>17.01.2024</t>
+          <t>17.12.2023</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17.01.2024</t>
+          <t>17.12.2023</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>18.01.2024</t>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>18.01.2024</t>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>19.01.2024</t>
+          <t>19.12.2023</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -752,7 +762,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>19.01.2024</t>
+          <t>19.12.2023</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -764,53 +774,53 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20.01.2024</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>08:00:00</t>
+          <t>20.12.2023</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>20.01.2024</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
+          <t>20.12.2023</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>21.01.2024</t>
+          <t>21.12.2023</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>21.01.2024</t>
+          <t>21.12.2023</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>22.01.2024</t>
+          <t>22.12.2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>22.01.2024</t>
+          <t>22.12.2023</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>23.01.2024</t>
+          <t>23.12.2023</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -820,7 +830,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>23.01.2024</t>
+          <t>23.12.2023</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -832,53 +842,53 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>24.01.2024</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>08:00:00</t>
+          <t>24.12.2023</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>24.01.2024</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
+          <t>24.12.2023</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>25.01.2024</t>
+          <t>25.12.2023</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>25.01.2024</t>
+          <t>25.12.2023</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>26.01.2024</t>
+          <t>26.12.2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>26.01.2024</t>
+          <t>26.12.2023</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>27.01.2024</t>
+          <t>27.12.2023</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -888,7 +898,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>27.01.2024</t>
+          <t>27.12.2023</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -900,53 +910,53 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>28.01.2024</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>08:00:00</t>
+          <t>28.12.2023</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>28.01.2024</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
+          <t>28.12.2023</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>29.01.2024</t>
+          <t>29.12.2023</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>29.01.2024</t>
+          <t>29.12.2023</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>30.01.2024</t>
+          <t>30.12.2023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>30.01.2024</t>
+          <t>30.12.2023</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>31.01.2024</t>
+          <t>31.12.2023</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -956,7 +966,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>31.01.2024</t>
+          <t>31.12.2023</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">

--- a/data/graph/График 2 бригада 3.xlsx
+++ b/data/graph/График 2 бригада 3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,532 +446,498 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01.12.2023</t>
+          <t>01.02.2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>08:10:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01.12.2023</t>
+          <t>01.02.2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19:50:00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>02.12.2023</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>08:00:00</t>
+          <t>02.02.2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>02.12.2023</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
+          <t>02.02.2024</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03.12.2023</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>08:00:00</t>
+          <t>03.02.2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>03.12.2023</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
+          <t>03.02.2024</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04.12.2023</t>
+          <t>04.02.2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>08:10:00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>04.12.2023</t>
+          <t>04.02.2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19:50:00</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>05.12.2023</t>
+          <t>05.02.2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>08:10:00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>05.12.2023</t>
+          <t>05.02.2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19:50:00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>06.12.2023</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>08:00:00</t>
+          <t>06.02.2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>06.12.2023</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
+          <t>06.02.2024</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>07.12.2023</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>08:00:00</t>
+          <t>07.02.2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>07.12.2023</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
+          <t>07.02.2024</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>08.12.2023</t>
+          <t>08.02.2024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>08:10:00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>08.12.2023</t>
+          <t>08.02.2024</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19:50:00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>09.12.2023</t>
+          <t>09.02.2024</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>08:10:00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>09.12.2023</t>
+          <t>09.02.2024</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19:50:00</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10.12.2023</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>08:00:00</t>
+          <t>10.02.2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10.12.2023</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
+          <t>10.02.2024</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11.12.2023</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>08:00:00</t>
+          <t>11.02.2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11.12.2023</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
+          <t>11.02.2024</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12.12.2023</t>
+          <t>12.02.2024</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>08:10:00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12.12.2023</t>
+          <t>12.02.2024</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19:50:00</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13.12.2023</t>
+          <t>13.02.2024</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>08:10:00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13.12.2023</t>
+          <t>13.02.2024</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19:50:00</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>14.12.2023</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>08:00:00</t>
+          <t>14.02.2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14.12.2023</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
+          <t>14.02.2024</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>15.12.2023</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>08:00:00</t>
+          <t>15.02.2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15.12.2023</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
+          <t>15.02.2024</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>16.12.2023</t>
+          <t>16.02.2024</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>08:10:00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16.12.2023</t>
+          <t>16.02.2024</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19:50:00</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>17.12.2023</t>
+          <t>17.02.2024</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>08:10:00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17.12.2023</t>
+          <t>17.02.2024</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19:50:00</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>18.12.2023</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>08:00:00</t>
+          <t>18.02.2024</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>18.12.2023</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
+          <t>18.02.2024</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>19.12.2023</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>08:00:00</t>
+          <t>19.02.2024</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>19.12.2023</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
+          <t>19.02.2024</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20.12.2023</t>
+          <t>20.02.2024</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>08:10:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>20.12.2023</t>
+          <t>20.02.2024</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>19:50:00</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>21.12.2023</t>
+          <t>21.02.2024</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>08:10:00</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>21.12.2023</t>
+          <t>21.02.2024</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>19:50:00</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>22.12.2023</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>08:00:00</t>
+          <t>22.02.2024</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>22.12.2023</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
+          <t>22.02.2024</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>23.12.2023</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>08:00:00</t>
+          <t>23.02.2024</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>23.12.2023</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
+          <t>23.02.2024</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>24.12.2023</t>
+          <t>24.02.2024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>08:10:00</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>24.12.2023</t>
+          <t>24.02.2024</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>19:50:00</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>25.12.2023</t>
+          <t>25.02.2024</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>08:10:00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>25.12.2023</t>
+          <t>25.02.2024</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>19:50:00</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>26.12.2023</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>08:00:00</t>
+          <t>26.02.2024</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>26.12.2023</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
+          <t>26.02.2024</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>27.12.2023</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>08:00:00</t>
+          <t>27.02.2024</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>27.12.2023</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
+          <t>27.02.2024</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>28.12.2023</t>
+          <t>28.02.2024</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>08:10:00</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>28.12.2023</t>
+          <t>28.02.2024</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>19:50:00</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>29.12.2023</t>
+          <t>29.02.2024</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>08:10:00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>29.12.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>30.12.2023</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>08:00:00</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>30.12.2023</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>31.12.2023</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>08:00:00</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>31.12.2023</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
+          <t>29.02.2024</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>19:50:00</t>
         </is>
       </c>
     </row>
